--- a/output/NHANES_2005-2006.xlsx
+++ b/output/NHANES_2005-2006.xlsx
@@ -25,7 +25,7 @@
     <t>RIDAGEYR</t>
   </si>
   <si>
-    <t>DMQMILIT</t>
+    <t>Military</t>
   </si>
   <si>
     <t>AUXU500R</t>
@@ -70,13 +70,13 @@
     <t>AUXU8KL</t>
   </si>
   <si>
-    <t>AUQ131</t>
+    <t>Q1</t>
   </si>
   <si>
-    <t>AUQ191</t>
+    <t>Q2</t>
   </si>
   <si>
-    <t>AUQ290</t>
+    <t>Q3</t>
   </si>
 </sst>
 </file>
@@ -1785,7 +1785,7 @@
         <v>120</v>
       </c>
       <c r="S20">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="T20">
         <v>1</v>
@@ -2036,7 +2036,7 @@
         <v>90</v>
       </c>
       <c r="L24">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="M24">
         <v>30</v>
@@ -3074,10 +3074,10 @@
         <v>100</v>
       </c>
       <c r="R39">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="S39">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="T39">
         <v>4</v>
@@ -3257,10 +3257,10 @@
         <v>110</v>
       </c>
       <c r="K42">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="L42">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="M42">
         <v>40</v>
@@ -3281,7 +3281,7 @@
         <v>120</v>
       </c>
       <c r="S42">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="T42">
         <v>5</v>
@@ -6447,16 +6447,16 @@
         <v>100</v>
       </c>
       <c r="I89">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="J89">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K89">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="L89">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="M89">
         <v>45</v>
@@ -8632,7 +8632,7 @@
         <v>105</v>
       </c>
       <c r="L121">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="M121">
         <v>50</v>
@@ -10400,7 +10400,7 @@
         <v>85</v>
       </c>
       <c r="L147">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="M147">
         <v>30</v>
@@ -10421,7 +10421,7 @@
         <v>70</v>
       </c>
       <c r="S147">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="T147">
         <v>4</v>
@@ -10465,10 +10465,10 @@
         <v>90</v>
       </c>
       <c r="K148">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="L148">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="M148">
         <v>15</v>
@@ -11778,7 +11778,7 @@
         <v>115</v>
       </c>
       <c r="R167">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="S167">
         <v>95</v>
@@ -13800,7 +13800,7 @@
         <v>110</v>
       </c>
       <c r="L197">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="M197">
         <v>20</v>
@@ -14134,13 +14134,13 @@
         <v>85</v>
       </c>
       <c r="J202">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K202">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="L202">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="M202">
         <v>25</v>
@@ -14616,7 +14616,7 @@
         <v>80</v>
       </c>
       <c r="L209">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="M209">
         <v>60</v>
@@ -14637,7 +14637,7 @@
         <v>75</v>
       </c>
       <c r="S209">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="T209">
         <v>3</v>
@@ -15840,7 +15840,7 @@
         <v>95</v>
       </c>
       <c r="L227">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="M227">
         <v>35</v>
@@ -16443,7 +16443,7 @@
         <v>85</v>
       </c>
       <c r="I236">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="J236">
         <v>105</v>
@@ -17153,7 +17153,7 @@
         <v>115</v>
       </c>
       <c r="S246">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="T246">
         <v>5</v>
@@ -17200,7 +17200,7 @@
         <v>100</v>
       </c>
       <c r="L247">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="M247">
         <v>10</v>
@@ -17221,7 +17221,7 @@
         <v>75</v>
       </c>
       <c r="S247">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="T247">
         <v>2</v>
@@ -17812,7 +17812,7 @@
         <v>105</v>
       </c>
       <c r="L256">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="M256">
         <v>50</v>
@@ -17833,7 +17833,7 @@
         <v>80</v>
       </c>
       <c r="S256">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="T256">
         <v>3</v>
@@ -18356,7 +18356,7 @@
         <v>110</v>
       </c>
       <c r="L264">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="M264">
         <v>40</v>
@@ -18989,7 +18989,7 @@
         <v>100</v>
       </c>
       <c r="S273">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="T273">
         <v>4</v>
@@ -23184,7 +23184,7 @@
         <v>100</v>
       </c>
       <c r="L335">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="M335">
         <v>50</v>
@@ -24837,7 +24837,7 @@
         <v>95</v>
       </c>
       <c r="S359">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="T359">
         <v>3</v>
@@ -25972,7 +25972,7 @@
         <v>70</v>
       </c>
       <c r="L376">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="M376">
         <v>120</v>
@@ -28216,7 +28216,7 @@
         <v>100</v>
       </c>
       <c r="L409">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="M409">
         <v>40</v>
@@ -29032,7 +29032,7 @@
         <v>120</v>
       </c>
       <c r="L421">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="M421">
         <v>75</v>
@@ -29186,10 +29186,10 @@
         <v>95</v>
       </c>
       <c r="R423">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="S423">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="T423">
         <v>4</v>
@@ -29440,7 +29440,7 @@
         <v>110</v>
       </c>
       <c r="L427">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="M427">
         <v>35</v>
@@ -34537,10 +34537,10 @@
         <v>100</v>
       </c>
       <c r="K502">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="L502">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="M502">
         <v>35</v>
@@ -35832,7 +35832,7 @@
         <v>105</v>
       </c>
       <c r="L521">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="M521">
         <v>30</v>
@@ -36036,7 +36036,7 @@
         <v>80</v>
       </c>
       <c r="L524">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="M524">
         <v>40</v>
@@ -37825,7 +37825,7 @@
         <v>80</v>
       </c>
       <c r="S550">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="T550">
         <v>4</v>
@@ -38481,10 +38481,10 @@
         <v>100</v>
       </c>
       <c r="K560">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="L560">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="M560">
         <v>40</v>
@@ -38505,7 +38505,7 @@
         <v>95</v>
       </c>
       <c r="S560">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="T560">
         <v>4</v>
@@ -38756,7 +38756,7 @@
         <v>120</v>
       </c>
       <c r="L564">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="M564">
         <v>25</v>
@@ -39862,10 +39862,10 @@
         <v>110</v>
       </c>
       <c r="R580">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="S580">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="T580">
         <v>4</v>
@@ -40048,7 +40048,7 @@
         <v>105</v>
       </c>
       <c r="L583">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="M583">
         <v>100</v>
@@ -40796,7 +40796,7 @@
         <v>120</v>
       </c>
       <c r="L594">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="M594">
         <v>65</v>
@@ -41748,7 +41748,7 @@
         <v>120</v>
       </c>
       <c r="L608">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="M608">
         <v>70</v>
@@ -41766,10 +41766,10 @@
         <v>110</v>
       </c>
       <c r="R608">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="S608">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="T608">
         <v>3</v>
@@ -42224,7 +42224,7 @@
         <v>90</v>
       </c>
       <c r="L615">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="M615">
         <v>55</v>
@@ -43605,7 +43605,7 @@
         <v>90</v>
       </c>
       <c r="S635">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="T635">
         <v>2</v>
@@ -44536,7 +44536,7 @@
         <v>120</v>
       </c>
       <c r="L649">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="M649">
         <v>45</v>
@@ -44669,10 +44669,10 @@
         <v>110</v>
       </c>
       <c r="K651">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="L651">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="M651">
         <v>40</v>
@@ -45352,7 +45352,7 @@
         <v>105</v>
       </c>
       <c r="L661">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="M661">
         <v>35</v>
@@ -45441,7 +45441,7 @@
         <v>75</v>
       </c>
       <c r="S662">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="T662">
         <v>2</v>
@@ -46984,7 +46984,7 @@
         <v>120</v>
       </c>
       <c r="L685">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="M685">
         <v>45</v>
@@ -47043,16 +47043,16 @@
         <v>105</v>
       </c>
       <c r="I686">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="J686">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K686">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="L686">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="M686">
         <v>50</v>
